--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.1950558703236742</v>
+        <v>0.2277013571343607</v>
       </c>
       <c r="D2">
-        <v>0.8453728092340544</v>
+        <v>0.8219812918541203</v>
       </c>
       <c r="E2">
         <v>0.6417692817887016</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.3282001749388486</v>
+        <v>-0.3311860086160919</v>
       </c>
       <c r="D3">
-        <v>0.7428012389204204</v>
+        <v>0.7436378936987875</v>
       </c>
       <c r="E3">
         <v>0.6417692817887016</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.653153941023251</v>
+        <v>2.464124884423317</v>
       </c>
       <c r="D4">
-        <v>0.008049536256528267</v>
+        <v>0.02202237479343205</v>
       </c>
       <c r="E4">
         <v>0.6417692817887016</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.555922965167463</v>
+        <v>1.74357819331541</v>
       </c>
       <c r="D5">
-        <v>0.1199148736601749</v>
+        <v>0.09519261137781454</v>
       </c>
       <c r="E5">
         <v>0.6417692817887016</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.4494884285958995</v>
+        <v>-0.4478740411138314</v>
       </c>
       <c r="D6">
-        <v>0.6531373706934036</v>
+        <v>0.658623399355208</v>
       </c>
       <c r="E6">
         <v>0.6368867429083435</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.23705181539386</v>
+        <v>2.529241004611813</v>
       </c>
       <c r="D7">
-        <v>0.02541374911540517</v>
+        <v>0.01910456335690136</v>
       </c>
       <c r="E7">
         <v>0.6368867429083435</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.252557906138932</v>
+        <v>1.419894817059028</v>
       </c>
       <c r="D8">
-        <v>0.2105410728012489</v>
+        <v>0.1696545707763584</v>
       </c>
       <c r="E8">
         <v>0.6368867429083435</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.884628547967042</v>
+        <v>2.885916100916389</v>
       </c>
       <c r="D9">
-        <v>0.003968745742115587</v>
+        <v>0.008578059008442107</v>
       </c>
       <c r="E9">
         <v>0.6489020833417231</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.916431861957629</v>
+        <v>3.029290782299383</v>
       </c>
       <c r="D10">
-        <v>0.05547975718406595</v>
+        <v>0.006161268625352712</v>
       </c>
       <c r="E10">
         <v>0.6489020833417231</v>
@@ -661,7 +661,7 @@
         <v>0.6054512409832283</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.065446942790367</v>
+        <v>-1.206239800730076</v>
       </c>
       <c r="D11">
-        <v>0.2868269123168152</v>
+        <v>0.2405372707273088</v>
       </c>
       <c r="E11">
         <v>0.5815066937003814</v>
